--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M695"/>
+  <dimension ref="A1:M721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,30 +990,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20007</v>
+        <v>20001</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1039,30 +1039,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7948,35 +7948,35 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20011</v>
+        <v>20018</v>
       </c>
       <c r="C154" t="n">
         <v>8</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J154" t="n">
@@ -7997,35 +7997,35 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>20018</v>
+        <v>20011</v>
       </c>
       <c r="C155" t="n">
         <v>8</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -26568,7 +26568,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>62194</v>
+        <v>20013</v>
       </c>
       <c r="C534" t="n">
         <v>27</v>
@@ -26580,18 +26580,18 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Atlético Mineiro Saf</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="F534" t="n">
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -26617,7 +26617,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>20013</v>
+        <v>62194</v>
       </c>
       <c r="C535" t="n">
         <v>27</v>
@@ -26629,18 +26629,18 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Atlético Mineiro Saf</t>
         </is>
       </c>
       <c r="F535" t="n">
         <v>0</v>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -33300,11 +33300,11 @@
         <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Fortaleza Ec Saf</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -33319,7 +33319,7 @@
         <v>11</v>
       </c>
       <c r="L671" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M671" t="n">
         <v>10</v>
@@ -33876,7 +33876,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -33885,29 +33885,29 @@
         </is>
       </c>
       <c r="F683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G683" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K683" t="n">
         <v>21</v>
       </c>
       <c r="L683" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M683" t="n">
         <v>2</v>
@@ -33964,10 +33964,10 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>60175</v>
+        <v>20385</v>
       </c>
       <c r="C685" t="n">
         <v>35</v>
@@ -33979,18 +33979,18 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F685" t="n">
         <v>3</v>
       </c>
       <c r="G685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -33999,24 +33999,24 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K685" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L685" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M685" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>61377</v>
+        <v>60175</v>
       </c>
       <c r="C686" t="n">
         <v>35</v>
@@ -34028,18 +34028,18 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -34048,122 +34048,122 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K686" t="n">
         <v>16</v>
       </c>
       <c r="L686" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M686" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>20014</v>
+        <v>61377</v>
       </c>
       <c r="C687" t="n">
         <v>35</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G687" t="n">
         <v>0</v>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K687" t="n">
         <v>16</v>
       </c>
       <c r="L687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M687" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>20005</v>
+        <v>20014</v>
       </c>
       <c r="C688" t="n">
         <v>35</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K688" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M688" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="C689" t="n">
         <v>35</v>
@@ -34175,18 +34175,18 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F689" t="n">
         <v>2</v>
       </c>
       <c r="G689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Atlético Mineiro Saf</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -34195,21 +34195,21 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K689" t="n">
         <v>13</v>
       </c>
       <c r="L689" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="M689" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B690" t="n">
         <v>20001</v>
@@ -34253,64 +34253,64 @@
         <v>-4</v>
       </c>
       <c r="M690" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>20013</v>
+        <v>62194</v>
       </c>
       <c r="C691" t="n">
         <v>35</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Atlético Mineiro Saf</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G691" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K691" t="n">
         <v>11</v>
       </c>
       <c r="L691" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="M691" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>60646</v>
+        <v>20013</v>
       </c>
       <c r="C692" t="n">
         <v>35</v>
@@ -34322,18 +34322,18 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G692" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -34342,24 +34342,24 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K692" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L692" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="M692" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>20018</v>
+        <v>60646</v>
       </c>
       <c r="C693" t="n">
         <v>35</v>
@@ -34371,67 +34371,67 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="F693" t="n">
         <v>0</v>
       </c>
       <c r="G693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K693" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L693" t="n">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="M693" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>20027</v>
+        <v>20007</v>
       </c>
       <c r="C694" t="n">
         <v>35</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Fortaleza Ec Saf</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -34440,64 +34440,1338 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K694" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L694" t="n">
-        <v>-31</v>
+        <v>-16</v>
       </c>
       <c r="M694" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>20010</v>
+        <v>20031</v>
       </c>
       <c r="C695" t="n">
         <v>35</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G695" t="n">
         <v>3</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J695" t="n">
+        <v>42</v>
+      </c>
+      <c r="K695" t="n">
+        <v>11</v>
+      </c>
+      <c r="L695" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M695" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>20011</v>
+      </c>
+      <c r="C696" t="n">
+        <v>35</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>1</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>41</v>
+      </c>
+      <c r="K696" t="n">
+        <v>10</v>
+      </c>
+      <c r="L696" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M696" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>20018</v>
+      </c>
+      <c r="C697" t="n">
+        <v>35</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
           <t>Vitória</t>
         </is>
       </c>
-      <c r="I695" t="inlineStr">
+      <c r="F697" t="n">
+        <v>2</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>41</v>
+      </c>
+      <c r="K697" t="n">
+        <v>10</v>
+      </c>
+      <c r="L697" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M697" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>20008</v>
+      </c>
+      <c r="C698" t="n">
+        <v>35</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>1</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>38</v>
+      </c>
+      <c r="K698" t="n">
+        <v>9</v>
+      </c>
+      <c r="L698" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M698" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>63238</v>
+      </c>
+      <c r="C699" t="n">
+        <v>35</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>1</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J699" t="n">
+        <v>37</v>
+      </c>
+      <c r="K699" t="n">
+        <v>9</v>
+      </c>
+      <c r="L699" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M699" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>20027</v>
+      </c>
+      <c r="C700" t="n">
+        <v>35</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>1</v>
+      </c>
+      <c r="G700" t="n">
+        <v>2</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J695" t="n">
+      <c r="J700" t="n">
+        <v>33</v>
+      </c>
+      <c r="K700" t="n">
+        <v>9</v>
+      </c>
+      <c r="L700" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M700" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>20010</v>
+      </c>
+      <c r="C701" t="n">
+        <v>35</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>1</v>
+      </c>
+      <c r="G701" t="n">
+        <v>3</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J701" t="n">
         <v>17</v>
       </c>
-      <c r="K695" t="n">
-        <v>2</v>
-      </c>
-      <c r="L695" t="n">
+      <c r="K701" t="n">
+        <v>2</v>
+      </c>
+      <c r="L701" t="n">
         <v>-38</v>
       </c>
-      <c r="M695" t="n">
+      <c r="M701" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>20016</v>
+      </c>
+      <c r="C702" t="n">
+        <v>36</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>1</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J702" t="n">
+        <v>75</v>
+      </c>
+      <c r="K702" t="n">
+        <v>22</v>
+      </c>
+      <c r="L702" t="n">
+        <v>50</v>
+      </c>
+      <c r="M702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>20002</v>
+      </c>
+      <c r="C703" t="n">
+        <v>36</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J703" t="n">
+        <v>70</v>
+      </c>
+      <c r="K703" t="n">
+        <v>21</v>
+      </c>
+      <c r="L703" t="n">
+        <v>28</v>
+      </c>
+      <c r="M703" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>59849</v>
+      </c>
+      <c r="C704" t="n">
+        <v>36</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>1</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J704" t="n">
+        <v>69</v>
+      </c>
+      <c r="K704" t="n">
+        <v>19</v>
+      </c>
+      <c r="L704" t="n">
+        <v>27</v>
+      </c>
+      <c r="M704" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>20385</v>
+      </c>
+      <c r="C705" t="n">
+        <v>36</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>0</v>
+      </c>
+      <c r="G705" t="n">
+        <v>2</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>63</v>
+      </c>
+      <c r="K705" t="n">
+        <v>17</v>
+      </c>
+      <c r="L705" t="n">
+        <v>22</v>
+      </c>
+      <c r="M705" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>60175</v>
+      </c>
+      <c r="C706" t="n">
+        <v>36</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>2</v>
+      </c>
+      <c r="G706" t="n">
+        <v>2</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>59</v>
+      </c>
+      <c r="K706" t="n">
+        <v>16</v>
+      </c>
+      <c r="L706" t="n">
+        <v>18</v>
+      </c>
+      <c r="M706" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>20014</v>
+      </c>
+      <c r="C707" t="n">
+        <v>36</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>6</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>58</v>
+      </c>
+      <c r="K707" t="n">
+        <v>17</v>
+      </c>
+      <c r="L707" t="n">
+        <v>8</v>
+      </c>
+      <c r="M707" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>61377</v>
+      </c>
+      <c r="C708" t="n">
+        <v>36</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>1</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>57</v>
+      </c>
+      <c r="K708" t="n">
+        <v>16</v>
+      </c>
+      <c r="L708" t="n">
+        <v>4</v>
+      </c>
+      <c r="M708" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>20005</v>
+      </c>
+      <c r="C709" t="n">
+        <v>36</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>0</v>
+      </c>
+      <c r="G709" t="n">
+        <v>6</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J709" t="n">
+        <v>48</v>
+      </c>
+      <c r="K709" t="n">
+        <v>13</v>
+      </c>
+      <c r="L709" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M709" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>20001</v>
+      </c>
+      <c r="C710" t="n">
+        <v>36</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>2</v>
+      </c>
+      <c r="G710" t="n">
+        <v>2</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>46</v>
+      </c>
+      <c r="K710" t="n">
+        <v>12</v>
+      </c>
+      <c r="L710" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M710" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>20013</v>
+      </c>
+      <c r="C711" t="n">
+        <v>36</v>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>3</v>
+      </c>
+      <c r="G711" t="n">
+        <v>2</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>46</v>
+      </c>
+      <c r="K711" t="n">
+        <v>12</v>
+      </c>
+      <c r="L711" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M711" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>60646</v>
+      </c>
+      <c r="C712" t="n">
+        <v>36</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>5</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>45</v>
+      </c>
+      <c r="K712" t="n">
+        <v>13</v>
+      </c>
+      <c r="L712" t="n">
+        <v>2</v>
+      </c>
+      <c r="M712" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>20007</v>
+      </c>
+      <c r="C713" t="n">
+        <v>36</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>2</v>
+      </c>
+      <c r="G713" t="n">
+        <v>0</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>45</v>
+      </c>
+      <c r="K713" t="n">
+        <v>13</v>
+      </c>
+      <c r="L713" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M713" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>62194</v>
+      </c>
+      <c r="C714" t="n">
+        <v>36</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>0</v>
+      </c>
+      <c r="G714" t="n">
+        <v>2</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>45</v>
+      </c>
+      <c r="K714" t="n">
+        <v>11</v>
+      </c>
+      <c r="L714" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M714" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>20031</v>
+      </c>
+      <c r="C715" t="n">
+        <v>36</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>1</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>43</v>
+      </c>
+      <c r="K715" t="n">
+        <v>11</v>
+      </c>
+      <c r="L715" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M715" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>20018</v>
+      </c>
+      <c r="C716" t="n">
+        <v>36</v>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J716" t="n">
+        <v>42</v>
+      </c>
+      <c r="K716" t="n">
+        <v>10</v>
+      </c>
+      <c r="L716" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M716" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>20008</v>
+      </c>
+      <c r="C717" t="n">
+        <v>36</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="F717" t="n">
+        <v>3</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>41</v>
+      </c>
+      <c r="K717" t="n">
+        <v>10</v>
+      </c>
+      <c r="L717" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M717" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>20011</v>
+      </c>
+      <c r="C718" t="n">
+        <v>36</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F718" t="n">
+        <v>1</v>
+      </c>
+      <c r="G718" t="n">
+        <v>5</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J718" t="n">
+        <v>41</v>
+      </c>
+      <c r="K718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L718" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M718" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>63238</v>
+      </c>
+      <c r="C719" t="n">
+        <v>36</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="F719" t="n">
+        <v>1</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>40</v>
+      </c>
+      <c r="K719" t="n">
+        <v>10</v>
+      </c>
+      <c r="L719" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M719" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>20027</v>
+      </c>
+      <c r="C720" t="n">
+        <v>36</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F720" t="n">
+        <v>1</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>34</v>
+      </c>
+      <c r="K720" t="n">
+        <v>9</v>
+      </c>
+      <c r="L720" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M720" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>20010</v>
+      </c>
+      <c r="C721" t="n">
+        <v>36</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F721" t="n">
+        <v>0</v>
+      </c>
+      <c r="G721" t="n">
+        <v>3</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>17</v>
+      </c>
+      <c r="K721" t="n">
+        <v>2</v>
+      </c>
+      <c r="L721" t="n">
+        <v>-41</v>
+      </c>
+      <c r="M721" t="n">
         <v>20</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M721"/>
+  <dimension ref="A1:M761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,30 +990,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1039,30 +1039,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20007</v>
+        <v>20001</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20031</v>
+        <v>20011</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1100,18 +1100,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20011</v>
+        <v>20031</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1149,18 +1149,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -32840,7 +32840,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>20016</v>
+        <v>20002</v>
       </c>
       <c r="C662" t="n">
         <v>34</v>
@@ -32852,33 +32852,33 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atlético Mineiro Saf</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J662" t="n">
         <v>71</v>
       </c>
       <c r="K662" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L662" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M662" t="n">
         <v>1</v>
@@ -32889,26 +32889,26 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>20002</v>
+        <v>20016</v>
       </c>
       <c r="C663" t="n">
         <v>34</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H663" t="inlineStr">
         <is>
@@ -32917,17 +32917,17 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K663" t="n">
         <v>21</v>
       </c>
       <c r="L663" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M663" t="n">
         <v>2</v>
@@ -33183,45 +33183,45 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>20005</v>
+        <v>20007</v>
       </c>
       <c r="C669" t="n">
         <v>34</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J669" t="n">
         <v>45</v>
       </c>
       <c r="K669" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L669" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="M669" t="n">
         <v>8</v>
@@ -33232,35 +33232,35 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>20001</v>
+        <v>20005</v>
       </c>
       <c r="C670" t="n">
         <v>34</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>1</v>
+      </c>
+      <c r="G670" t="n">
+        <v>3</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="F670" t="n">
-        <v>3</v>
-      </c>
-      <c r="G670" t="n">
-        <v>1</v>
-      </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J670" t="n">
@@ -33281,42 +33281,42 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>62194</v>
+        <v>20001</v>
       </c>
       <c r="C671" t="n">
         <v>34</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Atlético Mineiro Saf</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Fortaleza Ec Saf</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K671" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L671" t="n">
         <v>-1</v>
@@ -33330,7 +33330,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>20013</v>
+        <v>62194</v>
       </c>
       <c r="C672" t="n">
         <v>34</v>
@@ -33342,33 +33342,33 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Atlético Mineiro Saf</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K672" t="n">
         <v>11</v>
       </c>
       <c r="L672" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="M672" t="n">
         <v>11</v>
@@ -33379,45 +33379,45 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>60646</v>
+        <v>20013</v>
       </c>
       <c r="C673" t="n">
         <v>34</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>2</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
           <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
-      <c r="F673" t="n">
-        <v>0</v>
-      </c>
-      <c r="G673" t="n">
-        <v>2</v>
-      </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>Grêmio</t>
-        </is>
-      </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K673" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L673" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="M673" t="n">
         <v>12</v>
@@ -33428,7 +33428,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>20007</v>
+        <v>60646</v>
       </c>
       <c r="C674" t="n">
         <v>34</v>
@@ -33440,18 +33440,18 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="F674" t="n">
         <v>0</v>
       </c>
       <c r="G674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -33466,7 +33466,7 @@
         <v>12</v>
       </c>
       <c r="L674" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="M674" t="n">
         <v>13</v>
@@ -33575,45 +33575,45 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>20018</v>
+        <v>20008</v>
       </c>
       <c r="C677" t="n">
         <v>34</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Santos Fc</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K677" t="n">
         <v>9</v>
       </c>
       <c r="L677" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="M677" t="n">
         <v>16</v>
@@ -33624,45 +33624,45 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>20008</v>
+        <v>20018</v>
       </c>
       <c r="C678" t="n">
         <v>34</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Santos Fc</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K678" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L678" t="n">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="M678" t="n">
         <v>17</v>
@@ -33876,7 +33876,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -33885,29 +33885,29 @@
         </is>
       </c>
       <c r="F683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K683" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L683" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M683" t="n">
         <v>2</v>
@@ -34212,7 +34212,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="C690" t="n">
         <v>35</v>
@@ -34224,7 +34224,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F690" t="n">
@@ -34235,7 +34235,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Cruzeiro Saf</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -34247,10 +34247,10 @@
         <v>45</v>
       </c>
       <c r="K690" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L690" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="M690" t="n">
         <v>9</v>
@@ -34261,45 +34261,45 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>62194</v>
+        <v>20001</v>
       </c>
       <c r="C691" t="n">
         <v>35</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Atlético Mineiro Saf</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cruzeiro Saf</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J691" t="n">
         <v>45</v>
       </c>
       <c r="K691" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L691" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="M691" t="n">
         <v>10</v>
@@ -34310,7 +34310,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>20013</v>
+        <v>62194</v>
       </c>
       <c r="C692" t="n">
         <v>35</v>
@@ -34322,18 +34322,18 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Atlético Mineiro Saf</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G692" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Fortaleza Ec Saf</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -34342,13 +34342,13 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K692" t="n">
         <v>11</v>
       </c>
       <c r="L692" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="M692" t="n">
         <v>11</v>
@@ -34359,7 +34359,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>60646</v>
+        <v>20013</v>
       </c>
       <c r="C693" t="n">
         <v>35</v>
@@ -34371,18 +34371,18 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G693" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -34391,13 +34391,13 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K693" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L693" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="M693" t="n">
         <v>12</v>
@@ -34408,19 +34408,19 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>20007</v>
+        <v>60646</v>
       </c>
       <c r="C694" t="n">
         <v>35</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="F694" t="n">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Fortaleza Ec Saf</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -34446,7 +34446,7 @@
         <v>12</v>
       </c>
       <c r="L694" t="n">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="M694" t="n">
         <v>13</v>
@@ -34555,42 +34555,42 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>20018</v>
+        <v>20008</v>
       </c>
       <c r="C697" t="n">
         <v>35</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Santos Fc</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K697" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L697" t="n">
         <v>-14</v>
@@ -34604,7 +34604,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>20008</v>
+        <v>20018</v>
       </c>
       <c r="C698" t="n">
         <v>35</v>
@@ -34616,23 +34616,23 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Santos Fc</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J698" t="n">
@@ -34642,7 +34642,7 @@
         <v>9</v>
       </c>
       <c r="L698" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="M698" t="n">
         <v>17</v>
@@ -34856,7 +34856,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -34865,29 +34865,29 @@
         </is>
       </c>
       <c r="F703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G703" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K703" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L703" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M703" t="n">
         <v>2</v>
@@ -35355,19 +35355,19 @@
         </is>
       </c>
       <c r="F713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Atlético Mineiro Saf</t>
+          <t>Fortaleza Ec Saf</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J713" t="n">
@@ -35377,7 +35377,7 @@
         <v>13</v>
       </c>
       <c r="L713" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="M713" t="n">
         <v>12</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -35404,19 +35404,19 @@
         </is>
       </c>
       <c r="F714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J714" t="n">
@@ -35426,7 +35426,7 @@
         <v>11</v>
       </c>
       <c r="L714" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M714" t="n">
         <v>13</v>
@@ -35486,45 +35486,45 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>20018</v>
+        <v>20008</v>
       </c>
       <c r="C716" t="n">
         <v>36</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Santos Fc</t>
         </is>
       </c>
       <c r="F716" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G716" t="n">
         <v>0</v>
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K716" t="n">
         <v>10</v>
       </c>
       <c r="L716" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="M716" t="n">
         <v>15</v>
@@ -35535,35 +35535,35 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>20008</v>
+        <v>20011</v>
       </c>
       <c r="C717" t="n">
         <v>36</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Santos Fc</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F717" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G717" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Vasco da Gama S.a.f.</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J717" t="n">
@@ -35573,7 +35573,7 @@
         <v>10</v>
       </c>
       <c r="L717" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="M717" t="n">
         <v>16</v>
@@ -35584,35 +35584,35 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>20011</v>
+        <v>20018</v>
       </c>
       <c r="C718" t="n">
         <v>36</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="F718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G718" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Vasco da Gama S.a.f.</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J718" t="n">
@@ -35622,7 +35622,7 @@
         <v>10</v>
       </c>
       <c r="L718" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="M718" t="n">
         <v>17</v>
@@ -35772,6 +35772,1966 @@
         <v>-41</v>
       </c>
       <c r="M721" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>20016</v>
+      </c>
+      <c r="C722" t="n">
+        <v>37</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F722" t="n">
+        <v>1</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>78</v>
+      </c>
+      <c r="K722" t="n">
+        <v>23</v>
+      </c>
+      <c r="L722" t="n">
+        <v>51</v>
+      </c>
+      <c r="M722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>20002</v>
+      </c>
+      <c r="C723" t="n">
+        <v>37</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F723" t="n">
+        <v>0</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J723" t="n">
+        <v>73</v>
+      </c>
+      <c r="K723" t="n">
+        <v>22</v>
+      </c>
+      <c r="L723" t="n">
+        <v>31</v>
+      </c>
+      <c r="M723" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>59849</v>
+      </c>
+      <c r="C724" t="n">
+        <v>37</v>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="F724" t="n">
+        <v>2</v>
+      </c>
+      <c r="G724" t="n">
+        <v>2</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>70</v>
+      </c>
+      <c r="K724" t="n">
+        <v>19</v>
+      </c>
+      <c r="L724" t="n">
+        <v>27</v>
+      </c>
+      <c r="M724" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>20385</v>
+      </c>
+      <c r="C725" t="n">
+        <v>37</v>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F725" t="n">
+        <v>2</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J725" t="n">
+        <v>66</v>
+      </c>
+      <c r="K725" t="n">
+        <v>18</v>
+      </c>
+      <c r="L725" t="n">
+        <v>24</v>
+      </c>
+      <c r="M725" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>20014</v>
+      </c>
+      <c r="C726" t="n">
+        <v>37</v>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F726" t="n">
+        <v>2</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>61</v>
+      </c>
+      <c r="K726" t="n">
+        <v>18</v>
+      </c>
+      <c r="L726" t="n">
+        <v>9</v>
+      </c>
+      <c r="M726" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>61377</v>
+      </c>
+      <c r="C727" t="n">
+        <v>37</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F727" t="n">
+        <v>2</v>
+      </c>
+      <c r="G727" t="n">
+        <v>0</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J727" t="n">
+        <v>60</v>
+      </c>
+      <c r="K727" t="n">
+        <v>17</v>
+      </c>
+      <c r="L727" t="n">
+        <v>6</v>
+      </c>
+      <c r="M727" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>60175</v>
+      </c>
+      <c r="C728" t="n">
+        <v>37</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="F728" t="n">
+        <v>2</v>
+      </c>
+      <c r="G728" t="n">
+        <v>2</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>60</v>
+      </c>
+      <c r="K728" t="n">
+        <v>16</v>
+      </c>
+      <c r="L728" t="n">
+        <v>18</v>
+      </c>
+      <c r="M728" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>20005</v>
+      </c>
+      <c r="C729" t="n">
+        <v>37</v>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F729" t="n">
+        <v>3</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>51</v>
+      </c>
+      <c r="K729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L729" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M729" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>20007</v>
+      </c>
+      <c r="C730" t="n">
+        <v>37</v>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F730" t="n">
+        <v>2</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>48</v>
+      </c>
+      <c r="K730" t="n">
+        <v>14</v>
+      </c>
+      <c r="L730" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M730" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>20001</v>
+      </c>
+      <c r="C731" t="n">
+        <v>37</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F731" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" t="n">
+        <v>2</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>46</v>
+      </c>
+      <c r="K731" t="n">
+        <v>12</v>
+      </c>
+      <c r="L731" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M731" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>20013</v>
+      </c>
+      <c r="C732" t="n">
+        <v>37</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F732" t="n">
+        <v>1</v>
+      </c>
+      <c r="G732" t="n">
+        <v>2</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>46</v>
+      </c>
+      <c r="K732" t="n">
+        <v>12</v>
+      </c>
+      <c r="L732" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M732" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>60646</v>
+      </c>
+      <c r="C733" t="n">
+        <v>37</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="F733" t="n">
+        <v>0</v>
+      </c>
+      <c r="G733" t="n">
+        <v>2</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J733" t="n">
+        <v>45</v>
+      </c>
+      <c r="K733" t="n">
+        <v>13</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>62194</v>
+      </c>
+      <c r="C734" t="n">
+        <v>37</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="F734" t="n">
+        <v>0</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J734" t="n">
+        <v>45</v>
+      </c>
+      <c r="K734" t="n">
+        <v>11</v>
+      </c>
+      <c r="L734" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M734" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>20008</v>
+      </c>
+      <c r="C735" t="n">
+        <v>37</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="F735" t="n">
+        <v>3</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J735" t="n">
+        <v>44</v>
+      </c>
+      <c r="K735" t="n">
+        <v>11</v>
+      </c>
+      <c r="L735" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M735" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>20031</v>
+      </c>
+      <c r="C736" t="n">
+        <v>37</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F736" t="n">
+        <v>0</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J736" t="n">
+        <v>43</v>
+      </c>
+      <c r="K736" t="n">
+        <v>11</v>
+      </c>
+      <c r="L736" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M736" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>63238</v>
+      </c>
+      <c r="C737" t="n">
+        <v>37</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="F737" t="n">
+        <v>2</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J737" t="n">
+        <v>43</v>
+      </c>
+      <c r="K737" t="n">
+        <v>11</v>
+      </c>
+      <c r="L737" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M737" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>20018</v>
+      </c>
+      <c r="C738" t="n">
+        <v>37</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F738" t="n">
+        <v>0</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J738" t="n">
+        <v>42</v>
+      </c>
+      <c r="K738" t="n">
+        <v>10</v>
+      </c>
+      <c r="L738" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M738" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>20011</v>
+      </c>
+      <c r="C739" t="n">
+        <v>37</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F739" t="n">
+        <v>0</v>
+      </c>
+      <c r="G739" t="n">
+        <v>3</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J739" t="n">
+        <v>41</v>
+      </c>
+      <c r="K739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L739" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M739" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>20027</v>
+      </c>
+      <c r="C740" t="n">
+        <v>37</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F740" t="n">
+        <v>0</v>
+      </c>
+      <c r="G740" t="n">
+        <v>3</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J740" t="n">
+        <v>34</v>
+      </c>
+      <c r="K740" t="n">
+        <v>9</v>
+      </c>
+      <c r="L740" t="n">
+        <v>-34</v>
+      </c>
+      <c r="M740" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>20010</v>
+      </c>
+      <c r="C741" t="n">
+        <v>37</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F741" t="n">
+        <v>0</v>
+      </c>
+      <c r="G741" t="n">
+        <v>2</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>17</v>
+      </c>
+      <c r="K741" t="n">
+        <v>2</v>
+      </c>
+      <c r="L741" t="n">
+        <v>-43</v>
+      </c>
+      <c r="M741" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>20016</v>
+      </c>
+      <c r="C742" t="n">
+        <v>38</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F742" t="n">
+        <v>3</v>
+      </c>
+      <c r="G742" t="n">
+        <v>3</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>79</v>
+      </c>
+      <c r="K742" t="n">
+        <v>23</v>
+      </c>
+      <c r="L742" t="n">
+        <v>51</v>
+      </c>
+      <c r="M742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>20002</v>
+      </c>
+      <c r="C743" t="n">
+        <v>38</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F743" t="n">
+        <v>3</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>76</v>
+      </c>
+      <c r="K743" t="n">
+        <v>23</v>
+      </c>
+      <c r="L743" t="n">
+        <v>33</v>
+      </c>
+      <c r="M743" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>59849</v>
+      </c>
+      <c r="C744" t="n">
+        <v>38</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="F744" t="n">
+        <v>0</v>
+      </c>
+      <c r="G744" t="n">
+        <v>3</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>70</v>
+      </c>
+      <c r="K744" t="n">
+        <v>19</v>
+      </c>
+      <c r="L744" t="n">
+        <v>24</v>
+      </c>
+      <c r="M744" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>20385</v>
+      </c>
+      <c r="C745" t="n">
+        <v>38</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F745" t="n">
+        <v>3</v>
+      </c>
+      <c r="G745" t="n">
+        <v>3</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J745" t="n">
+        <v>67</v>
+      </c>
+      <c r="K745" t="n">
+        <v>18</v>
+      </c>
+      <c r="L745" t="n">
+        <v>24</v>
+      </c>
+      <c r="M745" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>20014</v>
+      </c>
+      <c r="C746" t="n">
+        <v>38</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F746" t="n">
+        <v>2</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>64</v>
+      </c>
+      <c r="K746" t="n">
+        <v>19</v>
+      </c>
+      <c r="L746" t="n">
+        <v>11</v>
+      </c>
+      <c r="M746" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>60175</v>
+      </c>
+      <c r="C747" t="n">
+        <v>38</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="F747" t="n">
+        <v>4</v>
+      </c>
+      <c r="G747" t="n">
+        <v>2</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>63</v>
+      </c>
+      <c r="K747" t="n">
+        <v>17</v>
+      </c>
+      <c r="L747" t="n">
+        <v>20</v>
+      </c>
+      <c r="M747" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>61377</v>
+      </c>
+      <c r="C748" t="n">
+        <v>38</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F748" t="n">
+        <v>0</v>
+      </c>
+      <c r="G748" t="n">
+        <v>2</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>60</v>
+      </c>
+      <c r="K748" t="n">
+        <v>17</v>
+      </c>
+      <c r="L748" t="n">
+        <v>4</v>
+      </c>
+      <c r="M748" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>20005</v>
+      </c>
+      <c r="C749" t="n">
+        <v>38</v>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F749" t="n">
+        <v>0</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J749" t="n">
+        <v>51</v>
+      </c>
+      <c r="K749" t="n">
+        <v>14</v>
+      </c>
+      <c r="L749" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M749" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>20013</v>
+      </c>
+      <c r="C750" t="n">
+        <v>38</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F750" t="n">
+        <v>4</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J750" t="n">
+        <v>49</v>
+      </c>
+      <c r="K750" t="n">
+        <v>13</v>
+      </c>
+      <c r="L750" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M750" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>20007</v>
+      </c>
+      <c r="C751" t="n">
+        <v>38</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F751" t="n">
+        <v>1</v>
+      </c>
+      <c r="G751" t="n">
+        <v>3</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>48</v>
+      </c>
+      <c r="K751" t="n">
+        <v>14</v>
+      </c>
+      <c r="L751" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M751" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>62194</v>
+      </c>
+      <c r="C752" t="n">
+        <v>38</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="F752" t="n">
+        <v>5</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>48</v>
+      </c>
+      <c r="K752" t="n">
+        <v>12</v>
+      </c>
+      <c r="L752" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M752" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>20008</v>
+      </c>
+      <c r="C753" t="n">
+        <v>38</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Santos Fc</t>
+        </is>
+      </c>
+      <c r="F753" t="n">
+        <v>3</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Cruzeiro Saf</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>47</v>
+      </c>
+      <c r="K753" t="n">
+        <v>12</v>
+      </c>
+      <c r="L753" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M753" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>20001</v>
+      </c>
+      <c r="C754" t="n">
+        <v>38</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F754" t="n">
+        <v>1</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>47</v>
+      </c>
+      <c r="K754" t="n">
+        <v>12</v>
+      </c>
+      <c r="L754" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M754" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>60646</v>
+      </c>
+      <c r="C755" t="n">
+        <v>38</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>Vasco da Gama S.a.f.</t>
+        </is>
+      </c>
+      <c r="F755" t="n">
+        <v>0</v>
+      </c>
+      <c r="G755" t="n">
+        <v>5</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro Saf</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>45</v>
+      </c>
+      <c r="K755" t="n">
+        <v>13</v>
+      </c>
+      <c r="L755" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M755" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>20018</v>
+      </c>
+      <c r="C756" t="n">
+        <v>38</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F756" t="n">
+        <v>1</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>45</v>
+      </c>
+      <c r="K756" t="n">
+        <v>11</v>
+      </c>
+      <c r="L756" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M756" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>20011</v>
+      </c>
+      <c r="C757" t="n">
+        <v>38</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F757" t="n">
+        <v>3</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>44</v>
+      </c>
+      <c r="K757" t="n">
+        <v>11</v>
+      </c>
+      <c r="L757" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M757" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>20031</v>
+      </c>
+      <c r="C758" t="n">
+        <v>38</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F758" t="n">
+        <v>1</v>
+      </c>
+      <c r="G758" t="n">
+        <v>3</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>43</v>
+      </c>
+      <c r="K758" t="n">
+        <v>11</v>
+      </c>
+      <c r="L758" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M758" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>63238</v>
+      </c>
+      <c r="C759" t="n">
+        <v>38</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>Fortaleza Ec Saf</t>
+        </is>
+      </c>
+      <c r="F759" t="n">
+        <v>2</v>
+      </c>
+      <c r="G759" t="n">
+        <v>4</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>43</v>
+      </c>
+      <c r="K759" t="n">
+        <v>11</v>
+      </c>
+      <c r="L759" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M759" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>20027</v>
+      </c>
+      <c r="C760" t="n">
+        <v>38</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="F760" t="n">
+        <v>1</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>35</v>
+      </c>
+      <c r="K760" t="n">
+        <v>9</v>
+      </c>
+      <c r="L760" t="n">
+        <v>-34</v>
+      </c>
+      <c r="M760" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>20010</v>
+      </c>
+      <c r="C761" t="n">
+        <v>38</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F761" t="n">
+        <v>0</v>
+      </c>
+      <c r="G761" t="n">
+        <v>4</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>17</v>
+      </c>
+      <c r="K761" t="n">
+        <v>2</v>
+      </c>
+      <c r="L761" t="n">
+        <v>-47</v>
+      </c>
+      <c r="M761" t="n">
         <v>20</v>
       </c>
     </row>
